--- a/Problems2.xlsx
+++ b/Problems2.xlsx
@@ -203,7 +203,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,9 +290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>687240</xdr:colOff>
+      <xdr:colOff>686880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -306,7 +306,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1306080" y="5013720"/>
-          <a:ext cx="4195080" cy="2560680"/>
+          <a:ext cx="4194720" cy="2560320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -327,9 +327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>38160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -343,44 +343,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1001880" y="799560"/>
-          <a:ext cx="4538160" cy="2335680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609480</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609480" y="8563320"/>
-          <a:ext cx="7141320" cy="5969160"/>
+          <a:ext cx="4537800" cy="2335320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -401,23 +364,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>472680</xdr:colOff>
+      <xdr:colOff>472320</xdr:colOff>
       <xdr:row>111</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 4" descr=""/>
+        <xdr:cNvPr id="2" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="855000" y="15453000"/>
-          <a:ext cx="7870320" cy="4077360"/>
+          <a:ext cx="7869960" cy="4077000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -438,23 +401,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>687600</xdr:colOff>
+      <xdr:colOff>687240</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 5" descr=""/>
+        <xdr:cNvPr id="3" name="Image 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="677520" y="21603600"/>
-          <a:ext cx="6887160" cy="2566440"/>
+          <a:ext cx="6886800" cy="2566080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -475,23 +438,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>397800</xdr:colOff>
+      <xdr:colOff>397440</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 6" descr=""/>
+        <xdr:cNvPr id="4" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10469160" y="21644640"/>
-          <a:ext cx="5745960" cy="2566080"/>
+          <a:ext cx="5745600" cy="2565720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -512,23 +475,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105120</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 7" descr=""/>
+        <xdr:cNvPr id="5" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="667800" y="24931800"/>
-          <a:ext cx="9753120" cy="3200040"/>
+          <a:ext cx="9752760" cy="3199680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -549,23 +512,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>358200</xdr:colOff>
+      <xdr:colOff>357840</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 8" descr=""/>
+        <xdr:cNvPr id="6" name="Image 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1021680" y="28888920"/>
-          <a:ext cx="7589160" cy="3223080"/>
+          <a:ext cx="7588800" cy="3222720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,23 +549,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>106920</xdr:colOff>
+      <xdr:colOff>106560</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 9" descr=""/>
+        <xdr:cNvPr id="7" name="Image 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1139400" y="33041160"/>
-          <a:ext cx="8595360" cy="4185000"/>
+          <a:ext cx="8595000" cy="4184640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,13 +586,50 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>628560</xdr:colOff>
+      <xdr:colOff>628200</xdr:colOff>
       <xdr:row>246</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 10" descr=""/>
+        <xdr:cNvPr id="8" name="Image 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="540360" y="40403880"/>
+          <a:ext cx="3526200" cy="2936160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>324000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>529200</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>2160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -638,8 +638,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="540360" y="40403880"/>
-          <a:ext cx="3526560" cy="2936520"/>
+          <a:off x="1011600" y="8494560"/>
+          <a:ext cx="7082280" cy="5936040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -661,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:S249"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A218" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B249" activeCellId="0" sqref="B249"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P58" activeCellId="0" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
